--- a/Sql Migration Template.xlsx
+++ b/Sql Migration Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\OneDrive\Desktop\New folder (2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F173C3B-87E8-4CFA-9EB7-08B1F82183BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930B7AB0-F94B-4FDD-8BFA-DC5AA1D02A8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{CD15B9E6-6B6A-4AE9-A282-EFA08B409665}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{CD15B9E6-6B6A-4AE9-A282-EFA08B409665}"/>
   </bookViews>
   <sheets>
     <sheet name="About me -To Do " sheetId="1" r:id="rId1"/>
@@ -97,9 +97,6 @@
     <t>host</t>
   </si>
   <si>
-    <t>34.171.176.139</t>
-  </si>
-  <si>
     <t>taerdata host IP</t>
   </si>
   <si>
@@ -182,6 +179,9 @@
   </si>
   <si>
     <t>project-id where user will be having access to run this schema migration step</t>
+  </si>
+  <si>
+    <t>34.31.79.171</t>
   </si>
 </sst>
 </file>
@@ -605,7 +605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160D5459-CAC9-4832-B4D9-5B302434A7C2}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -618,10 +618,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>46</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
@@ -680,26 +680,26 @@
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
@@ -707,7 +707,7 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
@@ -715,7 +715,7 @@
     <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
@@ -728,13 +728,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -757,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E639737B-FC89-4CC9-9233-0E0DAA21F734}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,106 +869,106 @@
         <v>22</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="6">
         <v>1025</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="D17" s="3"/>
     </row>

--- a/Sql Migration Template.xlsx
+++ b/Sql Migration Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\OneDrive\Desktop\New folder (2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\OneDrive\Desktop\aviator-automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930B7AB0-F94B-4FDD-8BFA-DC5AA1D02A8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D080B401-2AB7-4D22-9EC6-433D2236CDFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{CD15B9E6-6B6A-4AE9-A282-EFA08B409665}"/>
   </bookViews>
@@ -82,9 +82,6 @@
     <t>targetDataset</t>
   </si>
   <si>
-    <t>insurance</t>
-  </si>
-  <si>
     <t>BQ dataset name</t>
   </si>
   <si>
@@ -182,6 +179,9 @@
   </si>
   <si>
     <t>34.31.79.171</t>
+  </si>
+  <si>
+    <t>insurance_db</t>
   </si>
 </sst>
 </file>
@@ -618,10 +618,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>45</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
@@ -683,7 +683,7 @@
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
@@ -691,7 +691,7 @@
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
@@ -699,7 +699,7 @@
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
@@ -707,7 +707,7 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
@@ -715,7 +715,7 @@
     <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
@@ -728,13 +728,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -758,7 +758,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,130 +845,130 @@
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="6">
         <v>1025</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="D17" s="3"/>
     </row>
